--- a/user_files/hilarytn/facility1/source1/master_file.xlsx
+++ b/user_files/hilarytn/facility1/source1/master_file.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +479,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pri cl LA</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45300.40887037037</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45300.40910185185</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0002314814814814815</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pri pH flows</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45300.49280315972</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45300.49893741898</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.006134259259259259</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pri pH flows</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45300.50241207176</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45300.50287503472</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.000462962962962963</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pri pH flows</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45300.50356979167</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45300.50368553241</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pri pH flows</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45300.50438012731</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45300.50449586806</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pri pH flows</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45300.50519054398</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45300.50715813658</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.001967592592592592</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pri cl LA</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45300.42056299769</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45300.42067873842</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pri pH HA</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45300.65476473379</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45300.65488047454</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_files/hilarytn/facility1/source1/master_file.xlsx
+++ b/user_files/hilarytn/facility1/source1/master_file.xlsx
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -482,273 +483,273 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pri cl LA</t>
+          <t>SEC Cl</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45300.40887037037</v>
+        <v>45271.36145825232</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45300.40910185185</v>
+        <v>45271.36158556713</v>
       </c>
       <c r="F2" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0002314814814814815</v>
+          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.0001273148148148148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pri pH flows</t>
+          <t>PRI pH</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45300.49280315972</v>
+        <v>45271.68537890046</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45300.49893741898</v>
+        <v>45271.68549464121</v>
       </c>
       <c r="F3" t="n">
-        <v>8.83</v>
+        <v>0.17</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0.006134259259259259</v>
+          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pri pH flows</t>
+          <t>PRI pH SEC pH</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45300.50241207176</v>
+        <v>45271.68549475694</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45300.50287503472</v>
+        <v>45271.68769383102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.67</v>
+        <v>3.17</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.000462962962962963</v>
+          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.002199074074074074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pri pH flows</t>
+          <t>PRI pH&amp;rem SEC pH</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45300.50356979167</v>
+        <v>45271.6876965625</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45300.50368553241</v>
+        <v>45271.68898128472</v>
       </c>
       <c r="F5" t="n">
-        <v>0.17</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0001157407407407407</v>
+          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0.001284722222222222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pri pH flows</t>
+          <t>PRI pH&amp;rem SEC pH&amp;rem</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45300.50438012731</v>
+        <v>45271.68897129629</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45300.50449586806</v>
+        <v>45271.68908703703</v>
       </c>
       <c r="F6" t="n">
         <v>0.17</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pri pH flows</t>
+          <t>PRI pH SEC pH</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45300.50519054398</v>
+        <v>45271.6890871875</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45300.50715813658</v>
+        <v>45271.68920292824</v>
       </c>
       <c r="F7" t="n">
-        <v>2.83</v>
+        <v>0.17</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0.001967592592592592</v>
+          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Line:8 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>pri cl LA</t>
+          <t>PRI pH SEC pH</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45300.42056299769</v>
+        <v>45271.89825825232</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45300.42067873842</v>
+        <v>45271.8996471412</v>
       </c>
       <c r="F8" t="n">
-        <v>0.17</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0001157407407407407</v>
+          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Line:8 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pri pH HA</t>
+          <t>PRI Cl&amp;pH</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45300.65476473379</v>
+        <v>45272.09804105324</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45300.65488047454</v>
+        <v>45272.09827253472</v>
       </c>
       <c r="F9" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>44bb2153-845f-4543-8e0b-e127667e7e30</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0001157407407407407</v>
+          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.0002314814814814815</v>
       </c>
     </row>
   </sheetData>

--- a/user_files/hilarytn/facility1/source1/master_file.xlsx
+++ b/user_files/hilarytn/facility1/source1/master_file.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,11 +507,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>0.0001273148148148148</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -541,11 +541,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -575,11 +575,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0.002199074074074074</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -609,11 +609,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>0.001284722222222222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
@@ -643,11 +643,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -677,11 +677,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -711,11 +711,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>0.001388888888888889</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -745,11 +745,555 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7580109a-a8e0-4789-aaa6-bddca426b60e</t>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>0.0002314814814814815</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pri cl LA</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45300.40887037037</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45300.40910185185</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pri pH flows</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45300.49280315972</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45300.49893741898</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Pri pH flows</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45300.50241207176</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45300.50287503472</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Pri pH flows</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45300.50356979167</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45300.50368553241</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Pri pH flows</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45300.50438012731</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45300.50449586806</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Line:9 Stage:1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Pri pH flows</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45300.50519054398</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45300.50715813658</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SEC Cl</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45271.36145825232</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45271.36158556713</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PRI pH</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45271.68537890046</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45271.68549464121</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45271.68549475694</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45271.68769383102</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PRI pH&amp;rem SEC pH</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45271.6876965625</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45271.68898128472</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PRI pH&amp;rem SEC pH&amp;rem</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45271.68897129629</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45271.68908703703</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45271.6890871875</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45271.68920292824</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45271.89825825232</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45271.8996471412</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PRI Cl&amp;pH</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45272.09804105324</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45272.09827253472</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>pri cl LA</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45300.42056299769</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45300.42067873842</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>pri pH HA</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45300.65476473379</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45300.65488047454</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/user_files/hilarytn/facility1/source1/master_file.xlsx
+++ b/user_files/hilarytn/facility1/source1/master_file.xlsx
@@ -58,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -510,7 +509,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" t="n">
         <v>11</v>
       </c>
     </row>
@@ -544,7 +543,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -578,7 +577,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" t="n">
         <v>190</v>
       </c>
     </row>
@@ -612,7 +611,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" t="n">
         <v>111</v>
       </c>
     </row>
@@ -646,7 +645,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -680,7 +679,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -714,7 +713,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" t="n">
         <v>120</v>
       </c>
     </row>
@@ -748,7 +747,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" t="n">
         <v>20</v>
       </c>
     </row>
@@ -782,7 +781,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" t="n">
         <v>20</v>
       </c>
     </row>
@@ -816,7 +815,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" t="n">
         <v>530</v>
       </c>
     </row>
@@ -850,7 +849,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" t="n">
         <v>40</v>
       </c>
     </row>
@@ -884,7 +883,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -918,7 +917,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -952,7 +951,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" t="n">
         <v>170</v>
       </c>
     </row>
@@ -986,7 +985,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1020,7 +1019,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1054,7 +1053,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" t="n">
         <v>190</v>
       </c>
     </row>
@@ -1088,7 +1087,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" t="n">
         <v>111</v>
       </c>
     </row>
@@ -1122,7 +1121,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1156,7 +1155,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1190,7 +1189,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" t="n">
         <v>120</v>
       </c>
     </row>
@@ -1224,7 +1223,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1258,7 +1257,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1292,7 +1291,7 @@
           <t>c4f1636a-d92c-45e5-82c9-d146dc727e93</t>
         </is>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" t="n">
         <v>10</v>
       </c>
     </row>
